--- a/docs/20140315_ListScreen.xlsx
+++ b/docs/20140315_ListScreen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\TFS\ProjectE\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OTHER\Project-e\Github\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Yêu cầu setting hệ thống : ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Mức code PHP</t>
+  </si>
+  <si>
+    <t>Đã ghép UI</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +402,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -453,6 +471,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -763,7 +791,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +799,7 @@
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
     <col min="3" max="3" width="74.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -808,13 +837,13 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="22"/>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,43 +869,47 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="22"/>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -884,13 +917,13 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="17"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -898,13 +931,13 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1109,13 +1142,13 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>

--- a/docs/20140315_ListScreen.xlsx
+++ b/docs/20140315_ListScreen.xlsx
@@ -469,9 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -481,6 +478,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -791,7 +791,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,12 +815,12 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
@@ -831,19 +831,19 @@
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
@@ -869,13 +869,13 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,17 +887,17 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
       <c r="F6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1142,13 +1142,13 @@
       <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
